--- a/biology/Médecine/Syndrome_de_Roemheld/Syndrome_de_Roemheld.xlsx
+++ b/biology/Médecine/Syndrome_de_Roemheld/Syndrome_de_Roemheld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Syndrome de Roemheld,  syndrome de Roemheld-Techlenburg-Ceconi ou syndrome gastro-cardiaque[1] ou gastrocardiaque[2], a été décrit pour la première fois par le médecin allemand Ludwig Roemheld (1871–1938) [3]. Il consiste en des symptômes cardiaques (palpitations, arythmie) déclenchés sous l'influence de la pression exercée par les organes digestifs sur le cœur à travers le diaphragme, et/ou une compression du nerf vague[4]. Les crises se produisent généralement lors d'une accumulation de gaz intestinaux ou après une ingestion massive d'aliments. Le Syndrome de Roemheld n'est habituellement pas associé à une maladie coronaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Syndrome de Roemheld,  syndrome de Roemheld-Techlenburg-Ceconi ou syndrome gastro-cardiaque ou gastrocardiaque, a été décrit pour la première fois par le médecin allemand Ludwig Roemheld (1871–1938) . Il consiste en des symptômes cardiaques (palpitations, arythmie) déclenchés sous l'influence de la pression exercée par les organes digestifs sur le cœur à travers le diaphragme, et/ou une compression du nerf vague. Les crises se produisent généralement lors d'une accumulation de gaz intestinaux ou après une ingestion massive d'aliments. Le Syndrome de Roemheld n'est habituellement pas associé à une maladie coronaire.
 </t>
         </is>
       </c>
@@ -511,19 +523,21 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Symptômes les plus fréquents:
-anxiété[1]
-arythmie[1]
-bouffées de chaleur[1]
-dyspnée[1]
+anxiété
+arythmie
+bouffées de chaleur
+dyspnée
 extrasystolie
 palpitations
-tachycardie[1]
+tachycardie
 troubles semblables à ceux causés par une angine de poitrine
-sensation d'opression dans la poitrine[1]
-vertiges[1]</t>
+sensation d'opression dans la poitrine
+vertiges</t>
         </is>
       </c>
     </row>
@@ -551,7 +565,9 @@
           <t>Causes habituelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hernie diaphragmatique
 Maladies de l'appareil digestif
@@ -584,7 +600,9 @@
           <t>Thérapies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Éviter les mets copieux
 Réduire l'embonpoint
